--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{4E3E9EB7-2FBB-4C54-BB68-0C0832C67ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58B148B-C0D5-4853-B88C-63187F693482}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,13 +37,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -401,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G38" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G40" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I38" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I40" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B41" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -794,7 +793,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1118,12 +1117,30 @@
   </si>
   <si>
     <t>Cumulative Reserves [PJ]</t>
+  </si>
+  <si>
+    <t>URAN</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>New Nuclear Plant</t>
+  </si>
+  <si>
+    <t>ELE_NEW_URAN</t>
+  </si>
+  <si>
+    <t>Elektrownia jądrowa</t>
+  </si>
+  <si>
+    <t>Import paliwa jądrowego</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1364,7 +1381,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="10" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1478,14 +1495,27 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
-    <cellStyle name="Normal_MIN" xfId="5" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal_MIN" xfId="5"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
-    <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Normalny 10" xfId="3"/>
+    <cellStyle name="Normalny 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1501,7 +1531,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -1636,9 +1666,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1676,9 +1706,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1713,7 +1743,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1748,7 +1778,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1921,34 +1951,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:S55"/>
+  <dimension ref="B1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
-    <col min="15" max="18" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="18" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L1" s="37" t="s">
         <v>52</v>
       </c>
@@ -1956,7 +1986,7 @@
       <c r="N1" s="37"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>54</v>
       </c>
@@ -1967,7 +1997,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="24"/>
@@ -1976,7 +2006,7 @@
       <c r="K3" s="24"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="24" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +2015,7 @@
       <c r="H4" s="24"/>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="2:19" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
@@ -2041,7 +2071,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="2:19" s="26" customFormat="1" ht="48.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" s="26" customFormat="1" ht="48.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>40</v>
       </c>
@@ -2091,17 +2121,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="41" t="str">
-        <f>C40</f>
+        <f>C42</f>
         <v>ELE_NEW_WIND-OFF</v>
       </c>
       <c r="C7" s="41" t="str">
-        <f>D40</f>
+        <f>D42</f>
         <v>New Offshore Wind Turbine</v>
       </c>
       <c r="D7" s="41" t="str">
-        <f>C30</f>
+        <f>C32</f>
         <v>WIND-OFF</v>
       </c>
       <c r="E7" s="41" t="s">
@@ -2150,9 +2180,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="42" t="str">
-        <f t="shared" ref="B8:C8" si="0">C41</f>
+        <f t="shared" ref="B8:C8" si="0">C43</f>
         <v>ELE_NEW_WIND-ON</v>
       </c>
       <c r="C8" s="42" t="str">
@@ -2200,9 +2230,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="43" t="str">
-        <f t="shared" ref="B9:C9" si="1">C42</f>
+        <f t="shared" ref="B9:C9" si="1">C44</f>
         <v>ELE_NEW_PV_ROOF</v>
       </c>
       <c r="C9" s="43" t="str">
@@ -2250,9 +2280,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="42" t="str">
-        <f t="shared" ref="B10:C10" si="2">C43</f>
+        <f t="shared" ref="B10:C10" si="2">C45</f>
         <v>ELE_NEW_PV_GRND</v>
       </c>
       <c r="C10" s="42" t="str">
@@ -2300,9 +2330,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="str">
-        <f t="shared" ref="B11:C11" si="3">C44</f>
+        <f t="shared" ref="B11:C11" si="3">C46</f>
         <v>ELE_NEW_CCGT</v>
       </c>
       <c r="C11" s="43" t="str">
@@ -2350,9 +2380,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="42" t="str">
-        <f t="shared" ref="B12:C12" si="4">C45</f>
+        <f t="shared" ref="B12:C12" si="4">C47</f>
         <v>ELE_NEW_OCGT</v>
       </c>
       <c r="C12" s="42" t="str">
@@ -2400,34 +2430,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="44"/>
+    <row r="13" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="str">
+        <f>C49</f>
+        <v>ELE_NEW_URAN</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="62" t="str">
+        <f>D23</f>
+        <v>URAN</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="44">
+        <v>2035</v>
+      </c>
+      <c r="G13" s="56">
+        <v>0.33</v>
+      </c>
+      <c r="H13" s="42">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I13" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="J13" s="58">
+        <v>12000</v>
+      </c>
+      <c r="K13" s="58">
+        <v>50000</v>
+      </c>
+      <c r="L13" s="62">
+        <v>400</v>
+      </c>
+      <c r="M13" s="57">
+        <v>15</v>
+      </c>
+      <c r="N13" s="44">
+        <v>60</v>
+      </c>
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-    </row>
-    <row r="16" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="S13" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="39" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D18" s="33" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2495,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="35" t="s">
         <v>1</v>
       </c>
@@ -2455,7 +2515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
         <v>40</v>
       </c>
@@ -2475,253 +2535,242 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="str">
-        <f>C47</f>
+    <row r="21" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="str">
+        <f>C50</f>
         <v>MIN_WIND-OFF</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="10" t="str">
-        <f>C30</f>
+      <c r="D22" s="10" t="str">
+        <f>C32</f>
         <v>WIND-OFF</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8">
+      <c r="E22" s="9"/>
+      <c r="F22" s="8">
         <v>1E-3</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+      <c r="G22" s="9"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69">
+        <v>5</v>
+      </c>
+      <c r="G23" s="68"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="27" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="20" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="29" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E30" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F30" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H30" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I30" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="18" t="s">
+    <row r="31" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G31" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H31" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I31" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+    <row r="32" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="34" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B34" s="40" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B36" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-    </row>
-    <row r="37" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="20" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+    </row>
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+    </row>
+    <row r="39" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="19" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C40" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D40" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E40" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F40" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G40" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H40" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I40" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="18" t="s">
+    <row r="41" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F41" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G41" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H41" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I41" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-    </row>
-    <row r="41" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-    </row>
-    <row r="42" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>25</v>
@@ -2735,15 +2784,15 @@
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>25</v>
@@ -2757,15 +2806,15 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>25</v>
@@ -2779,15 +2828,15 @@
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>25</v>
@@ -2801,97 +2850,163 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>76</v>
+        <v>34</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
+      <c r="F46" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
     </row>
-    <row r="47" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="16" t="s">
+    <row r="47" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+    </row>
+    <row r="50" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D50" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E50" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-    </row>
-    <row r="51" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="5"/>
-      <c r="C51" s="4" t="s">
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+    </row>
+    <row r="54" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="5"/>
+      <c r="C54" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="3" t="s">
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="18" t="s">
+    <row r="56" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="18"/>
-    </row>
-    <row r="54" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="22" t="str">
-        <f>C44</f>
+      <c r="D56" s="18"/>
+    </row>
+    <row r="57" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="22" t="str">
+        <f>C46</f>
         <v>ELE_NEW_CCGT</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D57" s="6">
         <v>55.82</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="16" t="str">
-        <f>C45</f>
+    <row r="58" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="str">
+        <f>C47</f>
         <v>ELE_NEW_OCGT</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D58" s="1">
         <v>55.82</v>
       </c>
     </row>
@@ -2908,26 +3023,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -3122,28 +3217,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3160,4 +3254,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>